--- a/excel/monthly_temp.xlsx
+++ b/excel/monthly_temp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>销售发货增长一览表（monthly comparison)</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -34,48 +34,198 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2016(含税净值）
+    <t>increase rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan（1月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feb（2月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mar（3月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apr（4月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>May（5月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jun（6月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jul（7月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug（8月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep（9月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct（10月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nov（11月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec（12月）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total (总计）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb1%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb2%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb3%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb4%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb5%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb6%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb7%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb8%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb9%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb10%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb11%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[0].sb12%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht2%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht3%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht4%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht5%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht6%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht7%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht8%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht9%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht10%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht11%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht12%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[1].ht1%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh11%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh12%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017(含税净值）
+net value(inc. tax)</t>
+  </si>
+  <si>
+    <t>YTD(Jan)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017合同额
+contract value</t>
+  </si>
+  <si>
+    <t>2018(含税净值）
 net value(inc. tax)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017(含税净值）
-net value(inc. tax)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>increase rate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016合同额
+    <t>2018合同额
 contract value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017合同额
-contract value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>&lt;%~_data_[2].fh1%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh2%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh3%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh4%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh5%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh6%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh7%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh8%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh9%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~_data_[2].fh10%&gt;</t>
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>016合同额
-contract value</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2017合同额
+      <t>2018合同额
 contract value</t>
     </r>
     <r>
@@ -87,144 +237,6 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jan（1月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feb（2月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mar（3月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apr（4月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>May（5月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jun（6月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jul（7月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aug（8月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sep（9月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oct（10月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nov（11月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dec（12月）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total (总计）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb1%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb2%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb3%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb4%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb5%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb6%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb7%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb8%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb9%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb10%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb11%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[0].sb12%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht2%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht3%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht4%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht5%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht6%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht7%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht8%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht9%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht10%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht11%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht12%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~_data_[1].ht1%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~_data_[2].fh11%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~_data_[2].fh12%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YTD(Nov)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +536,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 10" xfId="1"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 10" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规_Sheet1" xfId="6"/>
@@ -824,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -888,486 +900,466 @@
     <row r="4" spans="1:11" ht="34.5" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9">
-        <v>46250640.030000001</v>
+        <v>51157119.976999998</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11" t="e">
         <f>(C5-B5)/B5</f>
         <v>#VALUE!</v>
       </c>
       <c r="E5" s="9">
-        <v>50764594</v>
+        <v>55429402</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G5" s="9">
-        <v>25333680</v>
-      </c>
-      <c r="H5" s="9">
         <v>17948218</v>
       </c>
-      <c r="I5" s="12">
+      <c r="H5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="12" t="e">
         <f>(H5-G5)/G5</f>
-        <v>-0.29152740541445221</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J5" s="13">
-        <v>28525199.739999998</v>
-      </c>
-      <c r="K5" s="13">
         <v>18213659</v>
       </c>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="18">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="9">
-        <v>39681949</v>
+        <v>27292981.394000001</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11" t="e">
         <f t="shared" ref="D6:D16" si="0">(C6-B6)/B6</f>
         <v>#VALUE!</v>
       </c>
       <c r="E6" s="9">
-        <v>43224868</v>
+        <v>30149032</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G6" s="9">
-        <v>21448772</v>
-      </c>
-      <c r="H6" s="10">
         <v>40867084</v>
       </c>
-      <c r="I6" s="12">
+      <c r="H6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="12" t="e">
         <f t="shared" ref="I6:I16" si="1">(H6-G6)/G6</f>
-        <v>0.90533444059175039</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J6" s="13">
-        <v>23552189.82</v>
-      </c>
-      <c r="K6" s="13">
         <v>43767330</v>
       </c>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9">
-        <v>78266481.030000001</v>
+        <v>46988758.550000004</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E7" s="9">
-        <v>81501998.599999994</v>
+        <v>50085819</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9">
-        <v>76593289</v>
-      </c>
-      <c r="H7" s="10">
         <v>70187714</v>
       </c>
-      <c r="I7" s="12">
+      <c r="H7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>-8.3631021511558282E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J7" s="13">
-        <v>84347946.030000001</v>
-      </c>
-      <c r="K7" s="10">
         <v>74361438</v>
       </c>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="18">
       <c r="A8" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="9">
-        <v>86361861.809999987</v>
+        <v>56074911.749999993</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D8" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E8" s="9">
-        <v>94630867.989999995</v>
+        <v>59571068.889999993</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G8" s="9">
-        <v>73543391</v>
-      </c>
-      <c r="H8" s="10">
         <v>52277211</v>
       </c>
-      <c r="I8" s="12">
+      <c r="H8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>-0.28916507263038771</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J8" s="13">
-        <v>79346183</v>
-      </c>
-      <c r="K8" s="13">
         <v>57458584</v>
       </c>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="18">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9" s="9">
-        <v>65752681.206</v>
+        <v>65270066.569999993</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E9" s="9">
-        <v>72218757.109999999</v>
+        <v>71373588.5</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G9" s="9">
-        <v>50204055</v>
-      </c>
-      <c r="H9" s="10">
         <v>71221700</v>
       </c>
-      <c r="I9" s="12">
+      <c r="H9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>0.41864437045971686</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J9" s="13">
-        <v>57101624.659999996</v>
-      </c>
-      <c r="K9" s="13">
         <v>77275315</v>
       </c>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="18">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9">
-        <v>81383453.251999989</v>
+        <v>89003744.586999983</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E10" s="9">
-        <v>92542785.869949996</v>
+        <v>94656736</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G10" s="9">
-        <v>65319781</v>
-      </c>
-      <c r="H10" s="10">
         <v>64132968</v>
       </c>
-      <c r="I10" s="12">
+      <c r="H10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>-1.8169274021295326E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J10" s="13">
-        <v>70329521</v>
-      </c>
-      <c r="K10" s="13">
         <v>68169919</v>
       </c>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="18">
       <c r="A11" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" s="9">
-        <v>75964258.034000009</v>
+        <v>57782247.79400003</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E11" s="9">
-        <v>81407941.5</v>
+        <v>62347955</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G11" s="9">
-        <v>55675424</v>
-      </c>
-      <c r="H11" s="10">
         <v>52292347</v>
       </c>
-      <c r="I11" s="12">
+      <c r="H11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>-6.0764279047071108E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J11" s="13">
-        <v>61472490</v>
-      </c>
-      <c r="K11" s="13">
         <v>55416632</v>
       </c>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="18">
       <c r="A12" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9">
-        <v>62757708.838369995</v>
+        <v>66983167.325000003</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E12" s="9">
-        <v>72394183.140000001</v>
+        <v>63329340.200000003</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G12" s="9">
-        <v>67385301</v>
-      </c>
-      <c r="H12" s="10">
         <v>58508016</v>
       </c>
-      <c r="I12" s="12">
+      <c r="H12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>-0.13173919042077145</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J12" s="13">
-        <v>71692955</v>
-      </c>
-      <c r="K12" s="13">
         <v>65829365</v>
       </c>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="18">
       <c r="A13" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9">
-        <v>77944768.02199997</v>
+        <v>52919042.970000014</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E13" s="9">
-        <v>85269427.799999997</v>
+        <v>56556790.730000004</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G13" s="9">
-        <v>63436389</v>
-      </c>
-      <c r="H13" s="10">
         <v>60840741</v>
       </c>
-      <c r="I13" s="12">
+      <c r="H13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>-4.0917335316800585E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J13" s="13">
-        <v>73392342</v>
-      </c>
-      <c r="K13" s="13">
         <v>71290639.976400092</v>
       </c>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="18">
       <c r="A14" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9">
-        <v>47377938.390000008</v>
+        <v>67330008.830899999</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E14" s="9">
-        <v>50330210.380000003</v>
+        <v>75909085.030000001</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G14" s="9">
-        <v>67374944</v>
-      </c>
-      <c r="H14" s="10">
         <v>49976740</v>
       </c>
-      <c r="I14" s="12">
+      <c r="H14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>-0.25822958754518593</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J14" s="13">
-        <v>72801214</v>
-      </c>
-      <c r="K14" s="13">
         <v>53467910</v>
       </c>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="18">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9">
-        <v>95061279.019999981</v>
+        <v>38193206.910000004</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E15" s="9">
-        <v>102141298.18000001</v>
+        <v>40943499.890000001</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G15" s="9">
-        <v>66212492</v>
+        <v>79363085</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I15" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J15" s="13">
-        <v>72528726</v>
+        <v>86977980</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="18">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9">
-        <v>65872132.916000016</v>
+        <v>80894470.140000015</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E16" s="9">
-        <v>71242750.25</v>
+        <v>85437607.890000001</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G16" s="9">
-        <v>80982156</v>
+        <v>76674581</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I16" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J16" s="13">
-        <v>85595359</v>
+        <v>90485940</v>
       </c>
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="18">
       <c r="A17" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B17" s="15">
-        <f>SUM(B5:B15)</f>
-        <v>756803018.63236988</v>
+        <f>SUM(B5:B5)</f>
+        <v>51157119.976999998</v>
       </c>
       <c r="C17" s="15">
-        <f>SUM(C5:C15)</f>
+        <f>SUM(C5:C5)</f>
         <v>0</v>
       </c>
       <c r="D17" s="16">
@@ -1375,40 +1367,40 @@
         <v>-1</v>
       </c>
       <c r="E17" s="15">
-        <f>SUM(E5:E15)</f>
-        <v>826426932.56994987</v>
+        <f>SUM(E5:E5)</f>
+        <v>55429402</v>
       </c>
       <c r="F17" s="15">
-        <f>SUM(F5:F15)</f>
+        <f>SUM(F5:F5)</f>
         <v>0</v>
       </c>
       <c r="G17" s="15">
-        <f>SUM(G5:G15)</f>
-        <v>632527518</v>
+        <f>SUM(G5:G5)</f>
+        <v>17948218</v>
       </c>
       <c r="H17" s="15">
-        <f>SUM(H5:H15)</f>
-        <v>538252739</v>
+        <f>SUM(H5:H5)</f>
+        <v>0</v>
       </c>
       <c r="I17" s="16">
         <f>(H17-G17)/G17</f>
-        <v>-0.14904454955270421</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="15">
-        <f>SUM(J5:J15)</f>
-        <v>695090391.25</v>
+        <f>SUM(J5:J5)</f>
+        <v>18213659</v>
       </c>
       <c r="K17" s="15">
-        <f>SUM(K5:K15)</f>
-        <v>585250791.97640014</v>
+        <f>SUM(K5:K5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18">
       <c r="A18" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="13">
-        <v>822675151.54836988</v>
+        <v>699889726.79789996</v>
       </c>
       <c r="C18" s="13">
         <f>SUM(C5:C16)</f>
@@ -1419,31 +1411,29 @@
         <v>-1</v>
       </c>
       <c r="E18" s="13">
-        <v>897669682.81994987</v>
+        <v>745789925.12999988</v>
       </c>
       <c r="F18" s="13">
         <f>SUM(F5:F16)</f>
         <v>0</v>
       </c>
       <c r="G18" s="13">
-        <f>SUM(G5:G16)</f>
-        <v>713509674</v>
+        <v>694290405</v>
       </c>
       <c r="H18" s="13">
         <f>SUM(H5:H16)</f>
-        <v>538252739</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f>(H18-G18)/G18</f>
-        <v>-0.24562657156068216</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="13">
-        <f>SUM(J5:J16)</f>
-        <v>780685750.25</v>
+        <v>762714711.97640014</v>
       </c>
       <c r="K18" s="13">
         <f>SUM(K5:K16)</f>
-        <v>585250791.97640014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1462,13 +1452,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B17 E17 G17 J17" formulaRange="1"/>
-    <ignoredError sqref="I17" formula="1" formulaRange="1"/>
-    <ignoredError sqref="I5:I14 I18" formula="1"/>
-    <ignoredError sqref="D5:D16" evalError="1"/>
-    <ignoredError sqref="D17 I15:I16" evalError="1" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
